--- a/Extinction3.xlsx
+++ b/Extinction3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faissal/My Drive/Research/2022 – Oxford Tan Lab/2022_11_TCET_Task/2022_11_TCET_Faissal_Test4_1129/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhuang\Desktop\TJU\Project\Fear leaning task\Paradigm\Test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030F41DA-E8E6-944A-8284-921789AD942E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07E9DD-6B91-47A1-AB19-F49E788080CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="2360" windowWidth="23040" windowHeight="12620" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>ExtName</t>
   </si>
   <si>
-    <t>Extinction/CS+3.BMP</t>
+    <t>Extinction\CS+3.BMP</t>
   </si>
   <si>
-    <t>Extinction/CS+4.BMP</t>
+    <t>Extinction\CS-3.BMP</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,15 +412,15 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A12" sqref="A12:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -436,7 +436,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -444,7 +444,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -452,7 +452,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -460,7 +460,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -468,7 +468,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +476,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -484,7 +484,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -492,7 +492,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -500,7 +500,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +508,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -524,7 +524,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -572,7 +572,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -580,7 +580,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -594,6 +594,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCC15C826F9CD04C984C1E59D79D0BF3" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4323ffbe69f4456b442358682c62cfba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64b0b0ad-49a7-4b34-8eba-9a240439451d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94ec3c4b7e8ae219eb184f3ca94c286d" ns2:_="">
     <xsd:import namespace="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
@@ -777,22 +786,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E7708E-A211-4EE7-B9CF-C271F86B84FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -810,19 +818,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>